--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/braactsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437C551-AA90-6143-862E-71076DB86732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BRAaCTSC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -109,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -165,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -179,6 +189,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -214,7 +225,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -508,21 +525,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="9">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,95 +550,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>1.0529130131709286</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -629,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -640,7 +660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -651,7 +671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -663,7 +683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -675,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -694,7 +714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -702,13 +722,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -812,7 +832,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
